--- a/estatistica/atividades/Exercício de Elaboração de Histograma.xlsx
+++ b/estatistica/atividades/Exercício de Elaboração de Histograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\839462\Documents\GitHub\unaerp\estatistica\atividades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marln\OneDrive\Documents\estudos\unaerp\estatistica\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308F1443-8F36-4452-A646-B3BE3C69770B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F0C70E-5606-4E4B-9124-50F4A12EDFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HISTOGRAMA" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -151,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,22 +173,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1532,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,7 +1552,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1553,14 +1560,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2">
@@ -1568,293 +1575,161 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>4.5599999999999996</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E3">
         <f>SQRT(E2)</f>
         <v>6</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>5.25</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <f>1+3.3*LOG10(E2)</f>
         <v>6.135798252532048</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <f>MAX(B:B)</f>
         <v>19.399999999999999</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>5.73</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <f>MIN(B:B)</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>6.26</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <f>E5-E6</f>
         <v>15.299999999999999</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>6.66</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <f>E7/E3</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>6.86</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>7.39</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>7.59</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>7.44</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>8.1199999999999992</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="12">
         <v>4</v>
       </c>
       <c r="E13">
@@ -1864,22 +1739,9 @@
       <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1896,22 +1758,9 @@
       <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1928,22 +1777,8 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1957,22 +1792,8 @@
       <c r="E16">
         <v>6</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1986,22 +1807,8 @@
       <c r="E17">
         <v>6</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2015,22 +1822,8 @@
       <c r="E18">
         <v>4</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2044,22 +1837,8 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2070,22 +1849,8 @@
         <f>SUM(E13:E19)</f>
         <v>36</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2095,22 +1860,8 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2120,22 +1871,8 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2145,22 +1882,10 @@
       <c r="D23" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2170,309 +1895,114 @@
       <c r="D24" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>12</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>12.79</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>13.23</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>13.6</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>13.85</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>14.69</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="3">
         <v>14.71</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>15.99</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="3">
         <v>16.22</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="3">
         <v>16.61</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="3">
         <v>17</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="3">
         <v>18.75</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="J24:J30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J24:J30">
     <sortCondition ref="J24"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
